--- a/data/trans_orig/P22S2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P22S2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A41F65E2-5D0A-4B1F-901A-27F45EE956B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{598E8F02-A820-4EF5-8676-31B7DA85F3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D0EC89E-6139-4D46-832A-D20CB779AB3E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D00ACDF-3B63-4030-87BB-AD4971ED0E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -98,25 +98,25 @@
     <t>34,81%</t>
   </si>
   <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>19,07%</t>
+    <t>21,98%</t>
   </si>
   <si>
     <t>21,99%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>Seguro Médico concertado individualmente (Sanitas, colegios</t>
@@ -125,10 +125,10 @@
     <t>14,92%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
   <si>
     <t>44,0%</t>
@@ -137,16 +137,16 @@
     <t>26,76%</t>
   </si>
   <si>
-    <t>62,67%</t>
+    <t>61,9%</t>
   </si>
   <si>
     <t>27,8%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
   </si>
   <si>
     <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a un</t>
@@ -155,1945 +155,1945 @@
     <t>35,75%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>37,16%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
   </si>
   <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>24,98%</t>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a la</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>Seguridad social</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2012 (Tasa respuesta: 4,5%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a la</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>Seguridad social</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2015 (Tasa respuesta: 3,96%)</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2012 (Tasa respuesta: 4,5%)</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2015 (Tasa respuesta: 3,96%)</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
     <t>0,75%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>89,8%</t>
   </si>
   <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>89,9%</t>
   </si>
   <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
 </sst>
 </file>
@@ -2505,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA2DEA8-5FB0-4B0E-9050-C63E900136F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F742F922-8CC8-416F-8D28-C137A8D192A3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3674,7 +3674,7 @@
         <v>129</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
@@ -3683,13 +3683,13 @@
         <v>22533</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
         <v>45506</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>134</v>
@@ -3872,13 +3872,13 @@
         <v>1018</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3887,13 +3887,13 @@
         <v>4042</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,37 +4018,37 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4069,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -4078,13 +4078,13 @@
         <v>2738</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -4093,13 +4093,13 @@
         <v>2738</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4114,13 @@
         <v>63752</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
@@ -4129,13 +4129,13 @@
         <v>18219</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M33" s="7">
         <v>80</v>
@@ -4144,13 +4144,13 @@
         <v>81971</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4165,13 @@
         <v>78869</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H34" s="7">
         <v>93</v>
@@ -4180,13 +4180,13 @@
         <v>97329</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M34" s="7">
         <v>171</v>
@@ -4195,13 +4195,13 @@
         <v>176198</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4216,13 @@
         <v>39236</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="H35" s="7">
         <v>44</v>
@@ -4231,13 +4231,13 @@
         <v>45576</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M35" s="7">
         <v>82</v>
@@ -4246,13 +4246,13 @@
         <v>84812</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4267,13 @@
         <v>32519</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -4282,13 +4282,13 @@
         <v>22290</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M36" s="7">
         <v>52</v>
@@ -4297,13 +4297,13 @@
         <v>54809</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4318,13 @@
         <v>7751</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -4333,10 +4333,10 @@
         <v>4902</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>215</v>
@@ -4354,7 +4354,7 @@
         <v>217</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>218</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,37 +4375,37 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4461,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F724219-B7C1-4380-8F8C-252C2EB04176}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A457BE4-7B1A-4D92-8889-6AF70276D0F1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4497,7 +4497,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4610,37 +4610,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4655,13 @@
         <v>822</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4670,13 +4670,13 @@
         <v>4194</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4685,13 +4685,13 @@
         <v>5016</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4706,13 @@
         <v>1835</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4721,13 +4721,13 @@
         <v>986</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -4736,13 +4736,13 @@
         <v>2821</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4757,13 @@
         <v>4913</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4772,13 +4772,13 @@
         <v>13062</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -4787,13 +4787,13 @@
         <v>17975</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4808,13 @@
         <v>1022</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4823,13 +4823,13 @@
         <v>5276</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -4838,13 +4838,13 @@
         <v>6298</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,7 +4865,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4874,13 +4874,13 @@
         <v>4393</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -4889,13 +4889,13 @@
         <v>4393</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,37 +4916,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,37 +4967,37 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,37 +5071,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,7 +5122,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5131,13 +5131,13 @@
         <v>1019</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -5272,10 +5272,10 @@
         <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5284,13 +5284,13 @@
         <v>8036</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -5299,13 +5299,13 @@
         <v>29295</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,10 +5320,10 @@
         <v>10227</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>56</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>294</v>
@@ -5377,7 +5377,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5428,37 +5428,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,10 +5733,10 @@
         <v>325</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>215</v>
+        <v>326</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -5745,13 +5745,13 @@
         <v>10825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -5760,7 +5760,7 @@
         <v>17672</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>330</v>
+        <v>209</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>331</v>
@@ -5814,10 +5814,10 @@
         <v>338</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5847,13 @@
         <v>1957</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>341</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -5868,7 +5868,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,7 +5993,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6008,7 +6008,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6038,13 @@
         <v>822</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6053,13 +6053,13 @@
         <v>5214</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -6068,13 +6068,13 @@
         <v>6035</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6089,13 @@
         <v>25968</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -6104,13 +6104,13 @@
         <v>7961</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M33" s="7">
         <v>32</v>
@@ -6119,13 +6119,13 @@
         <v>33930</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6140,13 @@
         <v>90526</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H34" s="7">
         <v>86</v>
@@ -6155,13 +6155,13 @@
         <v>94215</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M34" s="7">
         <v>167</v>
@@ -6170,13 +6170,13 @@
         <v>184741</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6191,13 @@
         <v>29128</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H35" s="7">
         <v>22</v>
@@ -6206,13 +6206,13 @@
         <v>24137</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M35" s="7">
         <v>51</v>
@@ -6221,13 +6221,13 @@
         <v>53266</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,13 +6242,13 @@
         <v>12130</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -6257,13 +6257,13 @@
         <v>21225</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M36" s="7">
         <v>33</v>
@@ -6272,13 +6272,13 @@
         <v>33356</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,7 +6299,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -6308,13 +6308,13 @@
         <v>2920</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>176</v>
+        <v>385</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6326,10 +6326,10 @@
         <v>115</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,7 +6350,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,7 +6436,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6455,7 +6455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFA73B3-0A9A-45CF-8744-EA582A5E387F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593FB9B3-C21D-482C-829B-FA24A5B08321}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6472,7 +6472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6585,22 +6585,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6636,22 +6636,22 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6687,22 +6687,22 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6789,22 +6789,22 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6849,13 +6849,13 @@
         <v>2362</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6864,13 +6864,13 @@
         <v>3497</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,22 +6891,22 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6942,22 +6942,22 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -7046,37 +7046,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7091,13 @@
         <v>1048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -7106,13 +7106,13 @@
         <v>2595</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -7121,13 +7121,13 @@
         <v>3644</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7142,13 @@
         <v>8797</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -7157,13 +7157,13 @@
         <v>5156</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M15" s="7">
         <v>12</v>
@@ -7172,13 +7172,13 @@
         <v>13953</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7193,13 @@
         <v>35841</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -7208,13 +7208,13 @@
         <v>53398</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -7223,13 +7223,13 @@
         <v>89239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7244,13 @@
         <v>8186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>435</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -7259,13 +7259,13 @@
         <v>975</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>438</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -7274,13 +7274,13 @@
         <v>9161</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>441</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7295,13 @@
         <v>5032</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -7310,13 +7310,13 @@
         <v>2468</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -7403,37 +7403,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,7 +7573,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>458</v>
+        <v>346</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -7582,13 +7582,13 @@
         <v>2216</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,13 +7603,13 @@
         <v>6095</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7618,13 +7618,13 @@
         <v>3675</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -7633,13 +7633,13 @@
         <v>9769</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,13 +7654,13 @@
         <v>37840</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -7669,13 +7669,13 @@
         <v>59745</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -7684,13 +7684,13 @@
         <v>97586</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,13 +7705,13 @@
         <v>5774</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>479</v>
+        <v>329</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -7720,13 +7720,13 @@
         <v>9847</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -7735,13 +7735,13 @@
         <v>15621</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>485</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,13 +7756,13 @@
         <v>6259</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -7771,13 +7771,13 @@
         <v>6569</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>330</v>
+        <v>487</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -7786,13 +7786,13 @@
         <v>12828</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,13 +7807,13 @@
         <v>1189</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7822,13 +7822,13 @@
         <v>922</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -7837,13 +7837,13 @@
         <v>2111</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,7 +7968,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7998,7 +7998,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,13 +8013,13 @@
         <v>2224</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -8028,13 +8028,13 @@
         <v>3636</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -8043,13 +8043,13 @@
         <v>5860</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,13 +8064,13 @@
         <v>14892</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>342</v>
+        <v>507</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -8079,13 +8079,13 @@
         <v>8831</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>511</v>
+        <v>215</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>512</v>
+        <v>208</v>
       </c>
       <c r="M33" s="7">
         <v>21</v>
@@ -8094,13 +8094,13 @@
         <v>23722</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>515</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,13 +8115,13 @@
         <v>78903</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H34" s="7">
         <v>109</v>
@@ -8130,13 +8130,13 @@
         <v>120539</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M34" s="7">
         <v>182</v>
@@ -8145,13 +8145,13 @@
         <v>199442</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8166,13 @@
         <v>13960</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -8181,13 +8181,13 @@
         <v>10822</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M35" s="7">
         <v>24</v>
@@ -8196,13 +8196,13 @@
         <v>24782</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8217,13 +8217,13 @@
         <v>12426</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>479</v>
+        <v>329</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -8232,13 +8232,13 @@
         <v>11399</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>414</v>
+        <v>233</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -8247,13 +8247,13 @@
         <v>23825</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,13 +8268,13 @@
         <v>3114</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -8283,13 +8283,13 @@
         <v>922</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -8298,13 +8298,13 @@
         <v>4036</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,7 +8325,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -8340,7 +8340,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -8355,7 +8355,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8411,7 +8411,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -8430,7 +8430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE91F322-3231-4D6B-8484-328B2BF3586F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF8CFB7-7DB8-4232-8573-57364AA10833}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8447,7 +8447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8560,7 +8560,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8575,7 +8575,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,7 +8611,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -8620,13 +8620,13 @@
         <v>655</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -8635,13 +8635,13 @@
         <v>655</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8656,13 +8656,13 @@
         <v>1109</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8677,7 +8677,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -8686,13 +8686,13 @@
         <v>1109</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8707,13 +8707,13 @@
         <v>7572</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>553</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -8722,13 +8722,13 @@
         <v>13964</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>446</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -8737,13 +8737,13 @@
         <v>21537</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8764,7 +8764,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -8773,13 +8773,13 @@
         <v>623</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -8788,13 +8788,13 @@
         <v>623</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8809,13 +8809,13 @@
         <v>1219</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>71</v>
+        <v>562</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -8824,13 +8824,13 @@
         <v>1035</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -8839,13 +8839,13 @@
         <v>2254</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>551</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8866,7 +8866,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8881,7 +8881,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8896,7 +8896,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9036,7 +9036,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -9066,13 +9066,13 @@
         <v>4304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -9081,13 +9081,13 @@
         <v>4464</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -9096,13 +9096,13 @@
         <v>8769</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9117,13 +9117,13 @@
         <v>26778</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>417</v>
+        <v>582</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -9132,13 +9132,13 @@
         <v>8070</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>582</v>
+        <v>174</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>583</v>
+        <v>386</v>
       </c>
       <c r="M15" s="7">
         <v>34</v>
@@ -9147,13 +9147,13 @@
         <v>34849</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>417</v>
+        <v>584</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>585</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9171,10 +9171,10 @@
         <v>586</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>443</v>
+        <v>587</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H16" s="7">
         <v>196</v>
@@ -9183,13 +9183,13 @@
         <v>140402</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M16" s="7">
         <v>282</v>
@@ -9198,10 +9198,10 @@
         <v>228160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>592</v>
+        <v>462</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>593</v>
@@ -9237,10 +9237,10 @@
         <v>596</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>597</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -9249,13 +9249,13 @@
         <v>47828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>596</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>459</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9270,13 +9270,13 @@
         <v>20865</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>600</v>
+        <v>538</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -9285,13 +9285,13 @@
         <v>8478</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>172</v>
+        <v>580</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>123</v>
+        <v>604</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -9300,13 +9300,13 @@
         <v>29343</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>166</v>
+        <v>605</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9342,7 +9342,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9372,13 +9372,13 @@
         <v>1987901</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H20" s="7">
         <v>2663</v>
@@ -9387,13 +9387,13 @@
         <v>2069328</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M20" s="7">
         <v>4499</v>
@@ -9402,13 +9402,13 @@
         <v>4057230</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9482,7 +9482,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9527,13 +9527,13 @@
         <v>4913</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>616</v>
+        <v>549</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>617</v>
+        <v>175</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -9542,13 +9542,13 @@
         <v>2184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -9557,13 +9557,13 @@
         <v>7097</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>620</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9578,13 +9578,13 @@
         <v>19019</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>623</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -9593,13 +9593,13 @@
         <v>11627</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>625</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -9608,13 +9608,13 @@
         <v>30645</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9629,10 +9629,10 @@
         <v>101701</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>629</v>
@@ -9659,13 +9659,13 @@
         <v>228003</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>200</v>
+        <v>633</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9680,13 +9680,13 @@
         <v>15569</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>500</v>
+        <v>637</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>636</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -9695,13 +9695,13 @@
         <v>31637</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M26" s="7">
         <v>61</v>
@@ -9710,13 +9710,13 @@
         <v>47206</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9731,13 +9731,13 @@
         <v>15881</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>644</v>
+        <v>586</v>
       </c>
       <c r="H27" s="7">
         <v>34</v>
@@ -9746,13 +9746,13 @@
         <v>20053</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>617</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="M27" s="7">
         <v>50</v>
@@ -9761,13 +9761,13 @@
         <v>35934</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>346</v>
+        <v>646</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9788,7 +9788,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9803,7 +9803,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9818,7 +9818,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9833,10 +9833,10 @@
         <v>515956</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>649</v>
+        <v>471</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>650</v>
@@ -9854,7 +9854,7 @@
         <v>652</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>653</v>
+        <v>520</v>
       </c>
       <c r="M29" s="7">
         <v>1253</v>
@@ -9863,13 +9863,13 @@
         <v>1038041</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9943,7 +9943,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9991,10 +9991,10 @@
         <v>657</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>303</v>
+        <v>585</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -10003,13 +10003,13 @@
         <v>7303</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>576</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>543</v>
+        <v>658</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -10018,13 +10018,13 @@
         <v>16520</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>543</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10042,10 +10042,10 @@
         <v>121</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>599</v>
+        <v>214</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>646</v>
+        <v>347</v>
       </c>
       <c r="H33" s="7">
         <v>25</v>
@@ -10054,13 +10054,13 @@
         <v>19697</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M33" s="7">
         <v>64</v>
@@ -10072,10 +10072,10 @@
         <v>115</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10090,13 +10090,13 @@
         <v>197032</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H34" s="7">
         <v>397</v>
@@ -10105,10 +10105,10 @@
         <v>280668</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>663</v>
+        <v>152</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>664</v>
+        <v>417</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>665</v>
@@ -10123,7 +10123,7 @@
         <v>666</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>667</v>
@@ -10156,13 +10156,13 @@
         <v>50191</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>169</v>
+        <v>671</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>502</v>
+        <v>672</v>
       </c>
       <c r="M35" s="7">
         <v>114</v>
@@ -10171,13 +10171,13 @@
         <v>95658</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>672</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10192,13 +10192,13 @@
         <v>37965</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>673</v>
+        <v>415</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>459</v>
+        <v>602</v>
       </c>
       <c r="H36" s="7">
         <v>50</v>
@@ -10207,13 +10207,13 @@
         <v>29566</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>673</v>
+        <v>415</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>674</v>
+        <v>578</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>169</v>
+        <v>557</v>
       </c>
       <c r="M36" s="7">
         <v>86</v>
@@ -10222,13 +10222,13 @@
         <v>67531</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>675</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>597</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10249,7 +10249,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10291,7 +10291,7 @@
         <v>3035</v>
       </c>
       <c r="D38" s="7">
-        <v>3035590</v>
+        <v>3035591</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>676</v>
@@ -10342,7 +10342,7 @@
         <v>3362</v>
       </c>
       <c r="D39" s="7">
-        <v>3372177</v>
+        <v>3372178</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>64</v>
@@ -10386,7 +10386,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P22S2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P22S2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{598E8F02-A820-4EF5-8676-31B7DA85F3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB89298-8AA5-4654-8069-E3953C8FCB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D00ACDF-3B63-4030-87BB-AD4971ED0E2C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C63FD86B-B019-44AF-B1ED-D2BB944236D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="682">
   <si>
     <t>Población según tipo de seguro sanitario en 2007 (Tasa respuesta: 6,16%)</t>
   </si>
@@ -98,25 +98,25 @@
     <t>34,81%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>21,98%</t>
+    <t>20,3%</t>
   </si>
   <si>
     <t>21,99%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
   </si>
   <si>
     <t>Seguro Médico concertado individualmente (Sanitas, colegios</t>
@@ -125,1923 +125,1923 @@
     <t>14,92%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
   </si>
   <si>
     <t>44,0%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
   </si>
   <si>
     <t>27,8%</t>
   </si>
   <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a un</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a la</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>Seguridad social</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2012 (Tasa respuesta: 4,5%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2016 (Tasa respuesta: 3,96%)</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a un</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a la</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>Seguridad social</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2012 (Tasa respuesta: 4,5%)</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2015 (Tasa respuesta: 3,96%)</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
     <t>7,23%</t>
   </si>
   <si>
@@ -2058,15 +2058,6 @@
   </si>
   <si>
     <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
   </si>
   <si>
     <t>90,02%</t>
@@ -2505,7 +2496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F742F922-8CC8-416F-8D28-C137A8D192A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8463983-0404-4D19-A03D-0B29B59BDD68}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3656,10 +3647,10 @@
         <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3668,13 +3659,13 @@
         <v>9977</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
@@ -3683,13 +3674,13 @@
         <v>22533</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3695,7 @@
         <v>45506</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>134</v>
@@ -3872,13 +3863,13 @@
         <v>1018</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3887,13 +3878,13 @@
         <v>4042</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,7 +4009,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -4033,7 +4024,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -4048,7 +4039,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4060,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -4078,7 +4069,7 @@
         <v>2738</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>171</v>
@@ -4117,10 +4108,10 @@
         <v>176</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
@@ -4129,13 +4120,13 @@
         <v>18219</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M33" s="7">
         <v>80</v>
@@ -4144,13 +4135,13 @@
         <v>81971</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4156,13 @@
         <v>78869</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H34" s="7">
         <v>93</v>
@@ -4180,13 +4171,13 @@
         <v>97329</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M34" s="7">
         <v>171</v>
@@ -4195,13 +4186,13 @@
         <v>176198</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4207,13 @@
         <v>39236</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="H35" s="7">
         <v>44</v>
@@ -4231,13 +4222,13 @@
         <v>45576</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M35" s="7">
         <v>82</v>
@@ -4246,13 +4237,13 @@
         <v>84812</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4258,13 @@
         <v>32519</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -4282,13 +4273,13 @@
         <v>22290</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7">
         <v>52</v>
@@ -4297,13 +4288,13 @@
         <v>54809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4309,13 @@
         <v>7751</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -4333,13 +4324,13 @@
         <v>4902</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>214</v>
+        <v>68</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -4348,13 +4339,13 @@
         <v>12653</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,7 +4366,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4390,7 +4381,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -4405,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4452,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A457BE4-7B1A-4D92-8889-6AF70276D0F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B434802-97F2-4EC1-A25E-241B12057189}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4497,7 +4488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4610,7 +4601,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4625,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4640,7 +4631,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4646,13 @@
         <v>822</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4670,13 +4661,13 @@
         <v>4194</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4685,13 +4676,13 @@
         <v>5016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,7 +4697,7 @@
         <v>1835</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -4739,7 +4730,7 @@
         <v>235</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>236</v>
@@ -4865,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4916,7 +4907,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4931,7 +4922,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4946,7 +4937,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,7 +4958,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4982,7 +4973,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4997,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5209,13 @@
         <v>46449</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5233,13 +5224,13 @@
         <v>50951</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -5248,13 +5239,13 @@
         <v>97399</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5260,13 @@
         <v>21259</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5284,13 +5275,13 @@
         <v>8036</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -5299,13 +5290,13 @@
         <v>29295</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,10 +5311,10 @@
         <v>10227</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>294</v>
@@ -5341,7 +5332,7 @@
         <v>296</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -5350,13 +5341,13 @@
         <v>22295</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5377,13 @@
         <v>963</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5401,13 +5392,13 @@
         <v>963</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,7 +5523,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5547,7 +5538,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5562,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,7 +5574,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5598,7 +5589,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5613,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5619,13 @@
         <v>2044</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5643,13 +5634,13 @@
         <v>5007</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5658,13 +5649,13 @@
         <v>7050</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5670,13 @@
         <v>39165</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -5694,13 +5685,13 @@
         <v>30202</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -5709,13 +5700,13 @@
         <v>69367</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5721,13 @@
         <v>6847</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -5745,13 +5736,13 @@
         <v>10825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -5760,13 +5751,13 @@
         <v>17672</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>209</v>
+        <v>326</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5772,13 @@
         <v>1903</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -5796,13 +5787,13 @@
         <v>4764</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -5811,13 +5802,13 @@
         <v>6667</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,7 +5829,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5847,13 +5838,13 @@
         <v>1957</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>246</v>
+        <v>337</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -5868,7 +5859,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,7 +5880,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5904,7 +5895,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5919,7 +5910,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,7 +5984,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6008,7 +5999,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>340</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6038,13 +6029,13 @@
         <v>822</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6053,13 +6044,13 @@
         <v>5214</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -6068,13 +6059,13 @@
         <v>6035</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>348</v>
+        <v>166</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>349</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6080,13 @@
         <v>25968</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -6104,13 +6095,13 @@
         <v>7961</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M33" s="7">
         <v>32</v>
@@ -6119,13 +6110,13 @@
         <v>33930</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6131,13 @@
         <v>90526</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H34" s="7">
         <v>86</v>
@@ -6155,13 +6146,13 @@
         <v>94215</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M34" s="7">
         <v>167</v>
@@ -6170,13 +6161,13 @@
         <v>184741</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6182,13 @@
         <v>29128</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H35" s="7">
         <v>22</v>
@@ -6206,13 +6197,13 @@
         <v>24137</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M35" s="7">
         <v>51</v>
@@ -6221,13 +6212,13 @@
         <v>53266</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,13 +6233,13 @@
         <v>12130</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -6257,13 +6248,13 @@
         <v>21225</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="M36" s="7">
         <v>33</v>
@@ -6272,13 +6263,13 @@
         <v>33356</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,7 +6290,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -6308,13 +6299,13 @@
         <v>2920</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6323,13 +6314,13 @@
         <v>2920</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>115</v>
+        <v>385</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,7 +6341,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6365,7 +6356,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>211</v>
+        <v>340</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6436,7 +6427,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6455,7 +6446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593FB9B3-C21D-482C-829B-FA24A5B08321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCAACAA-55E3-4B38-B3A2-7504A86057B4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6472,7 +6463,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6585,7 +6576,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6600,7 +6591,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6615,7 +6606,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,7 +6627,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6651,7 +6642,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6666,7 +6657,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,7 +6678,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6702,7 +6693,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6717,7 +6708,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,13 +6723,13 @@
         <v>5221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -6747,13 +6738,13 @@
         <v>7396</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -6762,13 +6753,13 @@
         <v>12618</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,7 +6780,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6804,7 +6795,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6819,7 +6810,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,13 +6825,13 @@
         <v>1135</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6849,13 +6840,13 @@
         <v>2362</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>183</v>
+        <v>401</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6864,13 +6855,13 @@
         <v>3497</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,7 +6882,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6906,7 +6897,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6921,7 +6912,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,7 +6933,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6957,7 +6948,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6972,7 +6963,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,23 +7037,23 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
@@ -7076,7 +7067,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>409</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7082,13 @@
         <v>1048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -7106,13 +7097,13 @@
         <v>2595</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -7121,13 +7112,13 @@
         <v>3644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7133,13 @@
         <v>8797</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -7157,13 +7148,13 @@
         <v>5156</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M15" s="7">
         <v>12</v>
@@ -7172,13 +7163,13 @@
         <v>13953</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7184,13 @@
         <v>35841</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -7208,13 +7199,13 @@
         <v>53398</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -7223,13 +7214,13 @@
         <v>89239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7235,13 @@
         <v>8186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -7259,13 +7250,13 @@
         <v>975</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -7274,13 +7265,13 @@
         <v>9161</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7286,13 @@
         <v>5032</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>209</v>
+        <v>440</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -7310,13 +7301,13 @@
         <v>2468</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -7325,13 +7316,13 @@
         <v>7500</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7337,13 @@
         <v>1925</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7367,7 +7358,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -7376,13 +7367,13 @@
         <v>1925</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,23 +7394,23 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
@@ -7433,7 +7424,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,37 +7498,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7543,13 @@
         <v>1175</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -7567,13 +7558,13 @@
         <v>1041</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>346</v>
+        <v>456</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -7582,13 +7573,13 @@
         <v>2216</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,10 +7594,10 @@
         <v>6095</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>461</v>
@@ -7705,13 +7696,13 @@
         <v>5774</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>329</v>
+        <v>477</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -7723,10 +7714,10 @@
         <v>257</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -7735,13 +7726,13 @@
         <v>15621</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>113</v>
+        <v>483</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,13 +7747,13 @@
         <v>6259</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>483</v>
+        <v>107</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -7771,13 +7762,13 @@
         <v>6569</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -7786,13 +7777,13 @@
         <v>12828</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,13 +7798,13 @@
         <v>1189</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7822,13 +7813,13 @@
         <v>922</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>493</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -7837,13 +7828,13 @@
         <v>2111</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>495</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,37 +7855,37 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,7 +7959,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>409</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8079,13 +8070,13 @@
         <v>8831</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>215</v>
+        <v>509</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>208</v>
+        <v>511</v>
       </c>
       <c r="M33" s="7">
         <v>21</v>
@@ -8094,13 +8085,13 @@
         <v>23722</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>334</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,13 +8106,13 @@
         <v>78903</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H34" s="7">
         <v>109</v>
@@ -8130,13 +8121,13 @@
         <v>120539</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M34" s="7">
         <v>182</v>
@@ -8145,13 +8136,13 @@
         <v>199442</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8157,13 @@
         <v>13960</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -8181,13 +8172,13 @@
         <v>10822</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M35" s="7">
         <v>24</v>
@@ -8196,13 +8187,13 @@
         <v>24782</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8217,13 +8208,13 @@
         <v>12426</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>329</v>
+        <v>477</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -8232,13 +8223,13 @@
         <v>11399</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>531</v>
+        <v>335</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -8247,13 +8238,13 @@
         <v>23825</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>533</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>534</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,7 +8280,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -8298,13 +8289,13 @@
         <v>4036</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,7 +8316,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>409</v>
+        <v>213</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -8411,7 +8402,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -8430,7 +8421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF8CFB7-7DB8-4232-8573-57364AA10833}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F0EC37-AD32-4014-86C6-DF6AF0748C05}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8447,7 +8438,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8560,37 +8551,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,7 +8602,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -8620,13 +8611,13 @@
         <v>655</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -8635,13 +8626,13 @@
         <v>655</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8656,14 +8647,14 @@
         <v>1109</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>550</v>
-      </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -8677,7 +8668,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -8686,13 +8677,13 @@
         <v>1109</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8707,13 +8698,13 @@
         <v>7572</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>536</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -8722,10 +8713,10 @@
         <v>13964</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>261</v>
@@ -8737,13 +8728,13 @@
         <v>21537</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8764,7 +8755,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -8773,13 +8764,13 @@
         <v>623</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -8788,13 +8779,13 @@
         <v>623</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8809,13 +8800,13 @@
         <v>1219</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -8824,13 +8815,13 @@
         <v>1035</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -8839,13 +8830,13 @@
         <v>2254</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>566</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8866,37 +8857,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,13 +8902,13 @@
         <v>531734</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="H11" s="7">
         <v>1402</v>
@@ -8926,13 +8917,13 @@
         <v>819676</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="M11" s="7">
         <v>2081</v>
@@ -8941,13 +8932,13 @@
         <v>1351409</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9021,37 +9012,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9066,13 +9057,13 @@
         <v>4304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -9081,13 +9072,13 @@
         <v>4464</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -9096,13 +9087,13 @@
         <v>8769</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>580</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9117,13 +9108,13 @@
         <v>26778</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -9132,13 +9123,13 @@
         <v>8070</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>174</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>386</v>
+        <v>582</v>
       </c>
       <c r="M15" s="7">
         <v>34</v>
@@ -9147,10 +9138,10 @@
         <v>34849</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>262</v>
@@ -9168,13 +9159,13 @@
         <v>87758</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="H16" s="7">
         <v>196</v>
@@ -9183,13 +9174,13 @@
         <v>140402</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="M16" s="7">
         <v>282</v>
@@ -9198,13 +9189,13 @@
         <v>228160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>462</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9222,10 +9213,10 @@
         <v>121</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -9234,13 +9225,13 @@
         <v>17931</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -9249,13 +9240,13 @@
         <v>47828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9270,13 +9261,13 @@
         <v>20865</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>538</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -9285,13 +9276,13 @@
         <v>8478</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>580</v>
+        <v>171</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -9300,13 +9291,13 @@
         <v>29343</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>605</v>
+        <v>166</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9327,37 +9318,37 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9372,13 +9363,13 @@
         <v>1987901</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H20" s="7">
         <v>2663</v>
@@ -9387,13 +9378,13 @@
         <v>2069328</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M20" s="7">
         <v>4499</v>
@@ -9402,13 +9393,13 @@
         <v>4057230</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9482,7 +9473,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9497,7 +9488,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9512,7 +9503,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9527,13 +9518,13 @@
         <v>4913</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>175</v>
+        <v>616</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -9542,13 +9533,13 @@
         <v>2184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -9557,10 +9548,10 @@
         <v>7097</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>68</v>
@@ -9578,13 +9569,13 @@
         <v>19019</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -9593,13 +9584,13 @@
         <v>11627</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -9608,13 +9599,13 @@
         <v>30645</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9629,13 +9620,13 @@
         <v>101701</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="H25" s="7">
         <v>180</v>
@@ -9644,13 +9635,13 @@
         <v>126301</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>632</v>
+        <v>41</v>
       </c>
       <c r="M25" s="7">
         <v>285</v>
@@ -9659,13 +9650,13 @@
         <v>228003</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9680,10 +9671,10 @@
         <v>15569</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>160</v>
@@ -9695,13 +9686,13 @@
         <v>31637</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>639</v>
+        <v>258</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="M26" s="7">
         <v>61</v>
@@ -9710,13 +9701,13 @@
         <v>47206</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>642</v>
+        <v>342</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9731,13 +9722,13 @@
         <v>15881</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>263</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H27" s="7">
         <v>34</v>
@@ -9746,13 +9737,13 @@
         <v>20053</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>314</v>
+        <v>623</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>255</v>
+        <v>641</v>
       </c>
       <c r="M27" s="7">
         <v>50</v>
@@ -9761,13 +9752,13 @@
         <v>35934</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>646</v>
+        <v>77</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9788,7 +9779,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9803,7 +9794,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9818,7 +9809,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9833,13 +9824,13 @@
         <v>515956</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>471</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="H29" s="7">
         <v>733</v>
@@ -9848,13 +9839,13 @@
         <v>522084</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>520</v>
+        <v>648</v>
       </c>
       <c r="M29" s="7">
         <v>1253</v>
@@ -9863,13 +9854,13 @@
         <v>1038041</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9943,7 +9934,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9958,7 +9949,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9973,7 +9964,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9988,13 +9979,13 @@
         <v>9217</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -10003,13 +9994,13 @@
         <v>7303</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -10018,13 +10009,13 @@
         <v>16520</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10042,10 +10033,10 @@
         <v>121</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>214</v>
+        <v>656</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H33" s="7">
         <v>25</v>
@@ -10054,13 +10045,13 @@
         <v>19697</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M33" s="7">
         <v>64</v>
@@ -10069,13 +10060,13 @@
         <v>66603</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>115</v>
+        <v>385</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>536</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10090,13 +10081,13 @@
         <v>197032</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H34" s="7">
         <v>397</v>
@@ -10105,13 +10096,13 @@
         <v>280668</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>152</v>
+        <v>662</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>417</v>
+        <v>663</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M34" s="7">
         <v>597</v>
@@ -10120,10 +10111,10 @@
         <v>477700</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>667</v>
@@ -10156,7 +10147,7 @@
         <v>50191</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>211</v>
+        <v>340</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>671</v>
@@ -10171,13 +10162,13 @@
         <v>95658</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>673</v>
+        <v>344</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>409</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10192,13 +10183,13 @@
         <v>37965</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>493</v>
+        <v>161</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H36" s="7">
         <v>50</v>
@@ -10207,13 +10198,13 @@
         <v>29566</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M36" s="7">
         <v>86</v>
@@ -10222,13 +10213,13 @@
         <v>67531</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>674</v>
+        <v>115</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>675</v>
+        <v>504</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10249,7 +10240,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10264,7 +10255,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -10279,7 +10270,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10294,13 +10285,13 @@
         <v>3035591</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H38" s="7">
         <v>4798</v>
@@ -10309,13 +10300,13 @@
         <v>3411089</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="M38" s="7">
         <v>7833</v>
@@ -10324,13 +10315,13 @@
         <v>6446679</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10386,7 +10377,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
